--- a/HouseRentalDemo.xlsx
+++ b/HouseRentalDemo.xlsx
@@ -1,40 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet sheetId="1" name="sdet49" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="sdet50" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t>sachin</t>
+    <t>jack</t>
   </si>
   <si>
-    <t>madhu</t>
+    <t>jhon</t>
+  </si>
+  <si>
+    <t>rock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,10 +63,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -218,20 +220,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -353,54 +351,84 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <dimension ref="A1:A1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>